--- a/medicine/Handicap/Glaucome_congénital/Glaucome_congénital.xlsx
+++ b/medicine/Handicap/Glaucome_congénital/Glaucome_congénital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glaucome_cong%C3%A9nital</t>
+          <t>Glaucome_congénital</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le glaucome congénital est une affection rare, le plus souvent bilatéral (peut être unilatéral), parfois asymétrique, dû à la persistance d’une membrane embryonnaire (membrane de Barkan) responsable d’une obstruction de l’angle irido-cornéen.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glaucome_cong%C3%A9nital</t>
+          <t>Glaucome_congénital</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le glaucome congénital correspond à l’existence d’une anomalie de développement à la naissance d’origine génétique qui entraîne une augmentation de la pression intra-oculaire et par la suite éventuellement un glaucome. La genèse des glaucomes par anomalie de développement est liée à l’embryologie de l’angle camérulaire et de la chambre antérieure.
 Cette anomalie de développement peut être isolée ou être associée à d’autres malformations oculaires (cataracte congénitale) ou générales (maladie de Sturge Weber Krabe).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glaucome_cong%C3%A9nital</t>
+          <t>Glaucome_congénital</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les signes cliniques du glaucome congénital peuvent être mis en évidence dès la première semaine de vie, c'est pourquoi le diagnostic sera souvent évoqué par le pédiatre ou l'obstétricien :
 une photophobie ;
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Glaucome_cong%C3%A9nital</t>
+          <t>Glaucome_congénital</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,16 +596,52 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le traitement du glaucome congénital est uniquement chirurgical et doit être proposé dans les plus brefs délais.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le traitement du glaucome congénital est uniquement chirurgical et doit être proposé dans les plus brefs délais.
 On distingue 3 types d’opérations :
 goniotomie (on ouvre l’angle en incisant la membrane de Barkan) ;
-trabéculotomie[1] ;
-trabéculectomie[2].
-Surveillance
-La surveillance doit être régulière: contrôle de la tension oculaire (TO), transparence des cornées tous les 6 mois pendant deux ans puis une fois par an à vie.
-La bonne prise en charge du glaucome congénital nécessite la complémentarité d'une équipe pluridisciplinaire[3] entre le pédiatre, l'ophtalmologue, l'orthoptiste, l'anesthésiste et le généticien.
+trabéculotomie ;
+trabéculectomie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Glaucome_congénital</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaucome_cong%C3%A9nital</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Surveillance</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La surveillance doit être régulière: contrôle de la tension oculaire (TO), transparence des cornées tous les 6 mois pendant deux ans puis une fois par an à vie.
+La bonne prise en charge du glaucome congénital nécessite la complémentarité d'une équipe pluridisciplinaire entre le pédiatre, l'ophtalmologue, l'orthoptiste, l'anesthésiste et le généticien.
 </t>
         </is>
       </c>
